--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Documents\Tencent Files\739563503\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>品牌</t>
   </si>
   <si>
-    <t>库存单位</t>
-  </si>
-  <si>
     <t>采购规格</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>主供应商</t>
   </si>
   <si>
-    <t>经营方式</t>
-  </si>
-  <si>
     <t>联营扣率/代销扣率</t>
   </si>
   <si>
@@ -64,10 +58,6 @@
   </si>
   <si>
     <t>销项税率</t>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
@@ -79,10 +69,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计件方式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +142,22 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计件方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +168,7 @@
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +215,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,12 +272,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X180"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O735" sqref="O735"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="10" customWidth="1"/>
     <col min="5" max="6" width="12.625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.625" customWidth="1" collapsed="1"/>
     <col min="8" max="11" width="12.625" customWidth="1" collapsed="1"/>
@@ -615,88 +607,86 @@
     <col min="14" max="14" width="18.625" customWidth="1"/>
     <col min="15" max="15" width="12.625" customWidth="1" collapsed="1"/>
     <col min="16" max="17" width="16.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="21" width="12.625" style="14" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="12.625" style="12" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="12.625" style="12" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="12.625" style="10" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="14.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="Q2" s="3"/>
@@ -704,38 +694,30 @@
     <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="8"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="N10" s="2"/>
@@ -1393,57 +1375,26 @@
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-    </row>
-    <row r="175" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-    </row>
-    <row r="176" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-    </row>
-    <row r="177" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-    </row>
-    <row r="178" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-    </row>
-    <row r="179" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-    </row>
-    <row r="180" spans="14:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O181:O1048576 N1:N180">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O174:O1048576 N2:N173">
       <formula1>"购销,联营,代销,扣率代销"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O173">
       <formula1>"普通,计重,计件"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"个,箱,套,包,个,瓶,千克,克"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
       <formula1>"普通商品,制单组合,制单拆分,捆绑商品,自动转货"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据类型错误" error="这里只能输入正整数" sqref="R1:U1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据类型错误" error="这里只能输入正整数" sqref="R1:U1048576 C1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据类型错误" error="这里只能输入正整数" sqref="E1:E1048576"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 W1:W1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据类型错误" error="这里只能输入正整数" sqref="C1:C1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576 D1:D1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>采购规格</t>
   </si>
@@ -195,25 +195,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>小类编码*</t>
+  </si>
+  <si>
+    <t>601001</t>
+  </si>
+  <si>
     <t>品牌编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小类编码</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
   </si>
 </sst>
 </file>
@@ -322,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -351,6 +342,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,18 +650,19 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.625" style="10" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.625" style="8" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="12.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="12" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.5" style="16" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="11.875" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" customWidth="1" collapsed="1"/>
@@ -699,8 +692,8 @@
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
+      <c r="H1" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -714,8 +707,8 @@
       <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
+      <c r="M1" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2</v>
@@ -746,8 +739,8 @@
       <c r="D2" s="8">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>601001</v>
+      <c r="H2" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
@@ -758,8 +751,8 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>9999</v>
+      <c r="M2" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="N2">
         <v>180</v>
@@ -787,8 +780,8 @@
       <c r="D3" s="8">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>601001</v>
+      <c r="H3" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>24</v>
@@ -799,8 +792,8 @@
       <c r="L3">
         <v>12</v>
       </c>
-      <c r="M3">
-        <v>9999</v>
+      <c r="M3" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="N3">
         <v>180</v>
@@ -816,9 +809,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M4" s="15"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M5" s="15"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -831,6 +826,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H9" s="15"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -840,6 +836,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M12" s="15"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -852,6 +849,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M16" s="15"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="16:16" ht="16.5" x14ac:dyDescent="0.35">

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\零售管理系统\V2.2.0\02.需求\零售管理系统v2.2.0导入导出模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -195,9 +191,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小类编码*</t>
-  </si>
-  <si>
     <t>601001</t>
   </si>
   <si>
@@ -205,6 +198,23 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <r>
+      <t>小类编码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,7 +660,7 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -708,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2</v>
@@ -740,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
@@ -752,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2">
         <v>180</v>
@@ -781,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>24</v>
@@ -793,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>180</v>

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\零售管理系统\V2.2.0\02.需求\零售管理系统v2.2.0导入导出模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -195,9 +191,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小类编码*</t>
-  </si>
-  <si>
     <t>601001</t>
   </si>
   <si>
@@ -205,6 +198,23 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <r>
+      <t>小类编码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,7 +660,7 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -708,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2</v>
@@ -740,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
@@ -752,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2">
         <v>180</v>
@@ -781,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>24</v>
@@ -793,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>180</v>

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -1,3 +1,659 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="7425"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+  <si>
+    <t>采购规格</t>
+  </si>
+  <si>
+    <t>配送规格</t>
+  </si>
+  <si>
+    <t>保质期天数</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>配送价</t>
+  </si>
+  <si>
+    <t>批发价</t>
+  </si>
+  <si>
+    <t>会员价</t>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零售价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进货价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>234567890123</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <r>
+      <t>计件方式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商品</t>
+  </si>
+  <si>
+    <t>湖南衡阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9876543210123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例商品1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例商品2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>601001</t>
+  </si>
+  <si>
+    <t>品牌编码</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <r>
+      <t>小类编码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
@@ -9,19 +665,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="12.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.625" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="12.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="12.625" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="12" width="12.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="12.625" collapsed="true"/>
+    <col min="9" max="12" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="11.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="15.625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="7425"/>
   </bookViews>
@@ -13,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -223,8 +227,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -323,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -335,14 +339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +349,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,19 +660,18 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="12.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.625" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="12.625" style="8" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.625" style="12" customWidth="1" collapsed="1"/>
     <col min="9" max="12" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.5" style="12" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="11.875" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" customWidth="1" collapsed="1"/>
@@ -684,25 +683,25 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -717,7 +716,7 @@
       <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -737,22 +736,22 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="13">
         <v>13</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K2">
@@ -761,13 +760,13 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N2">
         <v>180</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -778,22 +777,22 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="13">
         <v>13</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K3">
@@ -802,13 +801,13 @@
       <c r="L3">
         <v>12</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N3">
         <v>180</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -819,11 +818,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="M4" s="15"/>
+      <c r="M4" s="11"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="M5" s="15"/>
+      <c r="M5" s="11"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -836,7 +835,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="H9" s="15"/>
+      <c r="H9" s="11"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -846,7 +845,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="M12" s="15"/>
+      <c r="M12" s="11"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -859,7 +858,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="M16" s="15"/>
+      <c r="M16" s="11"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="16:16" ht="16.5" x14ac:dyDescent="0.35">

--- a/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
+++ b/src/main/resources/template/excel/export/NewGoodsApplyTemple.xlsx
@@ -1,3 +1,659 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="7425"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+  <si>
+    <t>采购规格</t>
+  </si>
+  <si>
+    <t>配送规格</t>
+  </si>
+  <si>
+    <t>保质期天数</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>配送价</t>
+  </si>
+  <si>
+    <t>批发价</t>
+  </si>
+  <si>
+    <t>会员价</t>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零售价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进货价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>234567890123</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <r>
+      <t>计件方式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商品</t>
+  </si>
+  <si>
+    <t>湖南衡阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9876543210123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例商品1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例商品2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>601001</t>
+  </si>
+  <si>
+    <t>品牌编码</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <r>
+      <t>小类编码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
@@ -9,18 +665,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.625" style="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="12.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.625" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="16.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="13" width="12.625" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="8" width="12.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="12.625" collapsed="true"/>
+    <col min="9" max="12" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="11.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="15.625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
